--- a/trans_data/边业银行 1936 C0709.xlsx
+++ b/trans_data/边业银行 1936 C0709.xlsx
@@ -491,19 +491,19 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>各项放款</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>本期纯损</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>资产 合计</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>各项放款</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>本期纯损</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
           <t>股本总额</t>
@@ -526,19 +526,19 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>各项存款</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>其他负债</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>负债 合计</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>各项存款</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>其他负债</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
           <t>手续费</t>
@@ -556,14 +556,14 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>摊提器具</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>损失 合计</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>摊提器具</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>利息</t>
@@ -586,12 +586,12 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>本期利益</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>利益 合计</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>本期利益</t>
         </is>
       </c>
     </row>
@@ -634,11 +634,11 @@
       <c r="L2" t="n">
         <v>746348.3100000001</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
         <v>4065281.98</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
         <v>2000000</v>
       </c>
@@ -651,11 +651,11 @@
       <c r="S2" t="n">
         <v>35871.6</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
         <v>4065281.98</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
         <v>322.18</v>
       </c>
@@ -665,10 +665,10 @@
       <c r="Y2" t="n">
         <v>35871.6</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>71652.58</v>
       </c>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>8776.32</v>
       </c>
@@ -681,10 +681,10 @@
       <c r="AE2" t="n">
         <v>54136.76</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="n">
         <v>71652.58</v>
       </c>
-      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -722,13 +722,13 @@
         <v>961365.4</v>
       </c>
       <c r="M3" t="n">
+        <v>424951.33</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21457.63</v>
+      </c>
+      <c r="O3" t="n">
         <v>4389411.8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424951.33</v>
-      </c>
-      <c r="O3" t="n">
-        <v>21457.63</v>
       </c>
       <c r="P3" t="n">
         <v>2000000</v>
@@ -739,13 +739,13 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
+        <v>1517473.12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>601538.6800000001</v>
+      </c>
+      <c r="V3" t="n">
         <v>4389411.8</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1517473.12</v>
-      </c>
-      <c r="V3" t="n">
-        <v>601538.6800000001</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
@@ -753,20 +753,20 @@
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
+        <v>2970.1</v>
+      </c>
+      <c r="AA3" t="n">
         <v>58790.63</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2970.1</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
+        <v>37333</v>
+      </c>
+      <c r="AG3" t="n">
         <v>58790.63</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>37333</v>
       </c>
     </row>
   </sheetData>

--- a/trans_data/边业银行 1936 C0709.xlsx
+++ b/trans_data/边业银行 1936 C0709.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,338 +434,332 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>银行名</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>银行名</t>
+          <t>年份</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>年份</t>
+          <t>未收股本</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>未收股本</t>
+          <t>活期及定期放款</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>活期及定期放款</t>
+          <t>有价证券</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>有价证券</t>
+          <t>其他资产</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>其他资产</t>
+          <t>营业用器具</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>营业用器具</t>
+          <t>兑换券准备金</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>兑换券准备金</t>
+          <t>现金_库存</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>现金_库存</t>
+          <t>现金_存放同业</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>现金_存放同业</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>各项放款</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>各项放款</t>
+          <t>本期纯损</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>本期纯损</t>
+          <t>资产 合计</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>资产 合计</t>
+          <t>股本总额</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>股本总额</t>
+          <t>发行兑换券</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>发行兑换券</t>
+          <t>活期及定期存款</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>活期及定期存款</t>
+          <t>本年纯益</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>本年纯益</t>
+          <t>各项存款</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>各项存款</t>
+          <t>其他负债</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>其他负债</t>
+          <t>负债 合计</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>负债 合计</t>
+          <t>手续费</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>手续费</t>
+          <t>各项开支</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>各项开支</t>
+          <t>纯益</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>纯益</t>
+          <t>摊提器具</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>摊提器具</t>
+          <t>损失 合计</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>损失 合计</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>汇水</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>汇水</t>
+          <t>有价证券损益</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>有价证券损益</t>
+          <t>杂损益</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>杂损益</t>
+          <t>本期利益</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>本期利益</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>利益 合计</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>边业银行</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>1934</v>
+      </c>
       <c r="C2" t="n">
-        <v>1934</v>
+        <v>1000000</v>
       </c>
       <c r="D2" t="n">
-        <v>1000000</v>
+        <v>486050.81</v>
       </c>
       <c r="E2" t="n">
-        <v>486050.81</v>
+        <v>197877.56</v>
       </c>
       <c r="F2" t="n">
-        <v>197877.56</v>
+        <v>1121623.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1121623.6</v>
+        <v>25281.7</v>
       </c>
       <c r="H2" t="n">
-        <v>25281.7</v>
+        <v>488100</v>
       </c>
       <c r="I2" t="n">
+        <v>55473.44</v>
+      </c>
+      <c r="J2" t="n">
+        <v>690874.87</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746348.3100000001</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>4065281.98</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P2" t="n">
         <v>488100</v>
       </c>
-      <c r="J2" t="n">
-        <v>55473.44</v>
-      </c>
-      <c r="K2" t="n">
-        <v>690874.87</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746348.3100000001</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>1541310.38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>35871.6</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
         <v>4065281.98</v>
       </c>
-      <c r="P2" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>488100</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1541310.38</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
+        <v>322.18</v>
+      </c>
+      <c r="W2" t="n">
+        <v>35458.8</v>
+      </c>
+      <c r="X2" t="n">
         <v>35871.6</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
-        <v>4065281.98</v>
-      </c>
-      <c r="W2" t="n">
-        <v>322.18</v>
-      </c>
-      <c r="X2" t="n">
-        <v>35458.8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>35871.6</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>71652.58</v>
+      </c>
       <c r="AA2" t="n">
-        <v>71652.58</v>
+        <v>8776.32</v>
       </c>
       <c r="AB2" t="n">
-        <v>8776.32</v>
+        <v>2559.76</v>
       </c>
       <c r="AC2" t="n">
-        <v>2559.76</v>
+        <v>6179.74</v>
       </c>
       <c r="AD2" t="n">
-        <v>6179.74</v>
-      </c>
-      <c r="AE2" t="n">
         <v>54136.76</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="n">
         <v>71652.58</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>边业银行</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>1935</v>
+      </c>
       <c r="C3" t="n">
-        <v>1935</v>
-      </c>
-      <c r="D3" t="n">
         <v>1000000</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>382296.05</v>
+      </c>
       <c r="F3" t="n">
-        <v>382296.05</v>
-      </c>
-      <c r="G3" t="n">
         <v>1328941.39</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>270400</v>
+      </c>
       <c r="I3" t="n">
+        <v>31026.99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>930338.41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>961365.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>424951.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21457.63</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4389411.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P3" t="n">
         <v>270400</v>
       </c>
-      <c r="J3" t="n">
-        <v>31026.99</v>
-      </c>
-      <c r="K3" t="n">
-        <v>930338.41</v>
-      </c>
-      <c r="L3" t="n">
-        <v>961365.4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>424951.33</v>
-      </c>
-      <c r="N3" t="n">
-        <v>21457.63</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>1517473.12</v>
+      </c>
+      <c r="T3" t="n">
+        <v>601538.6800000001</v>
+      </c>
+      <c r="U3" t="n">
         <v>4389411.8</v>
       </c>
-      <c r="P3" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>270400</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>1517473.12</v>
-      </c>
-      <c r="U3" t="n">
-        <v>601538.6800000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4389411.8</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
         <v>55820.53</v>
       </c>
-      <c r="Y3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>2970.1</v>
+      </c>
       <c r="Z3" t="n">
-        <v>2970.1</v>
-      </c>
-      <c r="AA3" t="n">
         <v>58790.63</v>
       </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>37333</v>
+      </c>
       <c r="AF3" t="n">
-        <v>37333</v>
-      </c>
-      <c r="AG3" t="n">
         <v>58790.63</v>
       </c>
     </row>

--- a/trans_data/边业银行 1936 C0709.xlsx
+++ b/trans_data/边业银行 1936 C0709.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,164 +422,164 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>银行名</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>年份</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>未收股本</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>活期及定期放款</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>有价证券</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>其他资产</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>营业用器具</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>兑换券准备金</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>现金_库存</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>现金_存放同业</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>各项放款</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>本期纯损</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>资产 合计</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>股本总额</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>发行兑换券</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>活期及定期存款</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>本年纯益</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>各项存款</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>其他负债</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>负债 合计</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
         <is>
           <t>手续费</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>各项开支</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>纯益</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>摊提器具</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>损失 合计</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
         <is>
           <t>利息</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>汇水</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>有价证券损益</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>杂损益</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>本期利益</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>利益 合计</t>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>合计</t>
         </is>
       </c>
     </row>

--- a/trans_data/边业银行 1936 C0709.xlsx
+++ b/trans_data/边业银行 1936 C0709.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,164 +434,164 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>银行名</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>年份</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>未收股本</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>活期及定期放款</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>有价证券</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>其他资产</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>营业用器具</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>兑换券准备金</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>现金_库存</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>现金_存放同业</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>各项放款</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>本期纯损</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>资产 合计</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>股本总额</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>发行兑换券</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>活期及定期存款</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>本年纯益</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>各项存款</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>其他负债</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>负债 合计</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>手续费</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>各项开支</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>纯益</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>摊提器具</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>损失 合计</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>利息</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>汇水</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>有价证券损益</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>杂损益</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>本期利益</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>合计</t>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>利益 合计</t>
         </is>
       </c>
     </row>
